--- a/Code/Results/Cases/Case_2_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.099642513612253</v>
+        <v>0.7011252215273771</v>
       </c>
       <c r="C2">
-        <v>0.07630315842732927</v>
+        <v>0.07441954820658481</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08625093612823775</v>
+        <v>0.1672815938945575</v>
       </c>
       <c r="F2">
-        <v>1.458834187157436</v>
+        <v>2.485942218732831</v>
       </c>
       <c r="G2">
-        <v>0.8525786024419233</v>
+        <v>1.405696287753514</v>
       </c>
       <c r="H2">
-        <v>0.6239299129983493</v>
+        <v>1.314022443498715</v>
       </c>
       <c r="I2">
-        <v>0.6929024514410145</v>
+        <v>1.353706269373127</v>
       </c>
       <c r="J2">
-        <v>0.06523727842883709</v>
+        <v>0.08815242923239985</v>
       </c>
       <c r="K2">
-        <v>0.9347637064619505</v>
+        <v>0.4145962733496731</v>
       </c>
       <c r="L2">
-        <v>0.3490500406746833</v>
+        <v>0.4185993786323934</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9564969700600727</v>
+        <v>0.6633612166925786</v>
       </c>
       <c r="C3">
-        <v>0.07041786893885416</v>
+        <v>0.07235220454283109</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07959835323436693</v>
+        <v>0.1663215372298623</v>
       </c>
       <c r="F3">
-        <v>1.389814447166543</v>
+        <v>2.483043847407188</v>
       </c>
       <c r="G3">
-        <v>0.8343583241217942</v>
+        <v>1.409841234333612</v>
       </c>
       <c r="H3">
-        <v>0.6236651964700854</v>
+        <v>1.320986855299353</v>
       </c>
       <c r="I3">
-        <v>0.6922662875836565</v>
+        <v>1.36117835806521</v>
       </c>
       <c r="J3">
-        <v>0.06556055464918131</v>
+        <v>0.08808919817806959</v>
       </c>
       <c r="K3">
-        <v>0.8107540858471225</v>
+        <v>0.3800044439820454</v>
       </c>
       <c r="L3">
-        <v>0.3105143405863799</v>
+        <v>0.4103376167998221</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8691149880519902</v>
+        <v>0.640451261161985</v>
       </c>
       <c r="C4">
-        <v>0.06680949317807006</v>
+        <v>0.07106141399443544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07558443548413152</v>
+        <v>0.165788643321708</v>
       </c>
       <c r="F4">
-        <v>1.349691842663631</v>
+        <v>2.482440281539851</v>
       </c>
       <c r="G4">
-        <v>0.8248631428692619</v>
+        <v>1.413137928468402</v>
       </c>
       <c r="H4">
-        <v>0.6244780432905515</v>
+        <v>1.32578460037449</v>
       </c>
       <c r="I4">
-        <v>0.6930635661223974</v>
+        <v>1.366359558901493</v>
       </c>
       <c r="J4">
-        <v>0.06577196405043573</v>
+        <v>0.08805538167351123</v>
       </c>
       <c r="K4">
-        <v>0.7349782209253135</v>
+        <v>0.3588943865144074</v>
       </c>
       <c r="L4">
-        <v>0.2871206782711653</v>
+        <v>0.4054411284788131</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8336157552343195</v>
+        <v>0.63118556011392</v>
       </c>
       <c r="C5">
-        <v>0.06533914413473241</v>
+        <v>0.07052999779362068</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07396557569578022</v>
+        <v>0.165585765772903</v>
       </c>
       <c r="F5">
-        <v>1.333879811126977</v>
+        <v>2.482490223302221</v>
       </c>
       <c r="G5">
-        <v>0.8213981837419482</v>
+        <v>1.414670236810522</v>
       </c>
       <c r="H5">
-        <v>0.6250451355990236</v>
+        <v>1.327870919343667</v>
       </c>
       <c r="I5">
-        <v>0.693675126213634</v>
+        <v>1.368620125985458</v>
       </c>
       <c r="J5">
-        <v>0.06586140323202017</v>
+        <v>0.08804287181959758</v>
       </c>
       <c r="K5">
-        <v>0.7041741799890673</v>
+        <v>0.3503247850771771</v>
       </c>
       <c r="L5">
-        <v>0.2776491104531118</v>
+        <v>0.4034902696019458</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8277272339663</v>
+        <v>0.6296512596435093</v>
       </c>
       <c r="C6">
-        <v>0.0650949653622348</v>
+        <v>0.07044142932247865</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07369775560546543</v>
+        <v>0.1655529421931625</v>
       </c>
       <c r="F6">
-        <v>1.331285926436266</v>
+        <v>2.482516392846264</v>
       </c>
       <c r="G6">
-        <v>0.8208466598223794</v>
+        <v>1.41493607924248</v>
       </c>
       <c r="H6">
-        <v>0.6251532801076678</v>
+        <v>1.328225276487558</v>
       </c>
       <c r="I6">
-        <v>0.6937936492096881</v>
+        <v>1.369004501698917</v>
       </c>
       <c r="J6">
-        <v>0.06587645432539802</v>
+        <v>0.08804087164989127</v>
       </c>
       <c r="K6">
-        <v>0.6990632613711796</v>
+        <v>0.3489038082497586</v>
       </c>
       <c r="L6">
-        <v>0.2760799199903659</v>
+        <v>0.4031690238547014</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8686358128480265</v>
+        <v>0.6403260153180099</v>
       </c>
       <c r="C7">
-        <v>0.06678966470968106</v>
+        <v>0.07105426905290813</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07556253600089846</v>
+        <v>0.1657858493507582</v>
       </c>
       <c r="F7">
-        <v>1.349476453879859</v>
+        <v>2.482439756758552</v>
       </c>
       <c r="G7">
-        <v>0.8248148028442728</v>
+        <v>1.413157829137873</v>
       </c>
       <c r="H7">
-        <v>0.6244847484103673</v>
+        <v>1.325812205924791</v>
       </c>
       <c r="I7">
-        <v>0.6930706685874881</v>
+        <v>1.36638944166458</v>
       </c>
       <c r="J7">
-        <v>0.06577315689122187</v>
+        <v>0.08805520780139631</v>
       </c>
       <c r="K7">
-        <v>0.7345625038481955</v>
+        <v>0.3587786801028869</v>
       </c>
       <c r="L7">
-        <v>0.2869926995309697</v>
+        <v>0.405414638100055</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.050168500100824</v>
+        <v>0.6880469636912778</v>
       </c>
       <c r="C8">
-        <v>0.0742720676698454</v>
+        <v>0.07371116461191463</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08394183730825233</v>
+        <v>0.1669388529417262</v>
       </c>
       <c r="F8">
-        <v>1.434550039699019</v>
+        <v>2.484698869016142</v>
       </c>
       <c r="G8">
-        <v>0.845931976974228</v>
+        <v>1.406969369081651</v>
       </c>
       <c r="H8">
-        <v>0.6236303637739979</v>
+        <v>1.316315548230349</v>
       </c>
       <c r="I8">
-        <v>0.692429102750296</v>
+        <v>1.356159499624681</v>
       </c>
       <c r="J8">
-        <v>0.06534608719167423</v>
+        <v>0.08812959460892245</v>
       </c>
       <c r="K8">
-        <v>0.8919185641653087</v>
+        <v>0.4026423457349608</v>
       </c>
       <c r="L8">
-        <v>0.3357038854133805</v>
+        <v>0.4157142409710843</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.411113816618354</v>
+        <v>0.7838085046182357</v>
       </c>
       <c r="C9">
-        <v>0.0890463209580048</v>
+        <v>0.0787523199024065</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1009820602747524</v>
+        <v>0.1696468170010874</v>
       </c>
       <c r="F9">
-        <v>1.620674566039312</v>
+        <v>2.498455972348324</v>
       </c>
       <c r="G9">
-        <v>0.901784176055699</v>
+        <v>1.400805481798741</v>
       </c>
       <c r="H9">
-        <v>0.6301471446586646</v>
+        <v>1.301829441374082</v>
       </c>
       <c r="I9">
-        <v>0.7011744105984477</v>
+        <v>1.340807085547063</v>
       </c>
       <c r="J9">
-        <v>0.06460933479041486</v>
+        <v>0.08831472109466532</v>
       </c>
       <c r="K9">
-        <v>1.204233283866529</v>
+        <v>0.4896748508873259</v>
       </c>
       <c r="L9">
-        <v>0.4336265335081464</v>
+        <v>0.4373040408796811</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.680712266968612</v>
+        <v>0.8554761184971653</v>
       </c>
       <c r="C10">
-        <v>0.1000540556537644</v>
+        <v>0.08235476449375767</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1139428032242336</v>
+        <v>0.1719064377132575</v>
       </c>
       <c r="F10">
-        <v>1.771268351150866</v>
+        <v>2.514248150151445</v>
       </c>
       <c r="G10">
-        <v>0.9531369130171896</v>
+        <v>1.399929399386863</v>
       </c>
       <c r="H10">
-        <v>0.6406049505448266</v>
+        <v>1.293706915078317</v>
       </c>
       <c r="I10">
-        <v>0.71455846633269</v>
+        <v>1.332400028904807</v>
       </c>
       <c r="J10">
-        <v>0.06412709374149728</v>
+        <v>0.08847405440200262</v>
       </c>
       <c r="K10">
-        <v>1.437233863665398</v>
+        <v>0.5542288047392674</v>
       </c>
       <c r="L10">
-        <v>0.5074533948028517</v>
+        <v>0.4540085448982012</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.804654293073725</v>
+        <v>0.8883611272579515</v>
       </c>
       <c r="C11">
-        <v>0.1051175315060249</v>
+        <v>0.08397200617872613</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1199516846799185</v>
+        <v>0.1729925645116879</v>
       </c>
       <c r="F11">
-        <v>1.843285939552231</v>
+        <v>2.522666917606116</v>
       </c>
       <c r="G11">
-        <v>0.9791047689157608</v>
+        <v>1.400326672038815</v>
       </c>
       <c r="H11">
-        <v>0.6467570242918583</v>
+        <v>1.290558805313566</v>
       </c>
       <c r="I11">
-        <v>0.7223658110301869</v>
+        <v>1.329199640730735</v>
       </c>
       <c r="J11">
-        <v>0.06392003853271788</v>
+        <v>0.08855147803896557</v>
       </c>
       <c r="K11">
-        <v>1.544308067852853</v>
+        <v>0.5837275131464423</v>
       </c>
       <c r="L11">
-        <v>0.5415491921080786</v>
+        <v>0.4617895983486449</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.851804981442285</v>
+        <v>0.9008540840765136</v>
       </c>
       <c r="C12">
-        <v>0.1070450564325114</v>
+        <v>0.08458134269911</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1222448304050445</v>
+        <v>0.1734121764914889</v>
       </c>
       <c r="F12">
-        <v>1.871107294332489</v>
+        <v>2.526032368167492</v>
       </c>
       <c r="G12">
-        <v>0.9893462597995892</v>
+        <v>1.400591735698498</v>
       </c>
       <c r="H12">
-        <v>0.6493020977764843</v>
+        <v>1.289445312540352</v>
       </c>
       <c r="I12">
-        <v>0.7255882847493567</v>
+        <v>1.328077504239801</v>
       </c>
       <c r="J12">
-        <v>0.06384336388149592</v>
+        <v>0.08858149629843126</v>
       </c>
       <c r="K12">
-        <v>1.585037244283484</v>
+        <v>0.594916744284717</v>
       </c>
       <c r="L12">
-        <v>0.5545429499896528</v>
+        <v>0.46476212054732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.841640109852534</v>
+        <v>0.8981617273237248</v>
       </c>
       <c r="C13">
-        <v>0.1066294457533985</v>
+        <v>0.08445024777754639</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1217501481164049</v>
+        <v>0.1733214363617428</v>
       </c>
       <c r="F13">
-        <v>1.865090259873753</v>
+        <v>2.52529966813475</v>
       </c>
       <c r="G13">
-        <v>0.9871218677957501</v>
+        <v>1.400529548505304</v>
       </c>
       <c r="H13">
-        <v>0.6487441402101126</v>
+        <v>1.289681626293159</v>
       </c>
       <c r="I13">
-        <v>0.7248821205442866</v>
+        <v>1.328315182620045</v>
       </c>
       <c r="J13">
-        <v>0.0638598006922777</v>
+        <v>0.08857500038886101</v>
       </c>
       <c r="K13">
-        <v>1.57625691550939</v>
+        <v>0.5925061171001289</v>
       </c>
       <c r="L13">
-        <v>0.551740697641705</v>
+        <v>0.4641207809096386</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.808528890936827</v>
+        <v>0.8893881296521329</v>
       </c>
       <c r="C14">
-        <v>0.1052758953860646</v>
+        <v>0.08402219824155566</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1201399793711815</v>
+        <v>0.1730269198058174</v>
       </c>
       <c r="F14">
-        <v>1.8455635294263</v>
+        <v>2.522940239657984</v>
       </c>
       <c r="G14">
-        <v>0.9799389656554922</v>
+        <v>1.400346180645627</v>
       </c>
       <c r="H14">
-        <v>0.6469620022762115</v>
+        <v>1.290465621829696</v>
       </c>
       <c r="I14">
-        <v>0.7226254814730595</v>
+        <v>1.329105522269451</v>
       </c>
       <c r="J14">
-        <v>0.06391369595875318</v>
+        <v>0.08855393370084741</v>
       </c>
       <c r="K14">
-        <v>1.547655061090609</v>
+        <v>0.5846476851341436</v>
       </c>
       <c r="L14">
-        <v>0.5426164913778848</v>
+        <v>0.4620336293564975</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.78827643099163</v>
+        <v>0.8840192549633628</v>
       </c>
       <c r="C15">
-        <v>0.1044481855608907</v>
+        <v>0.08375960525510351</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1191560566678511</v>
+        <v>0.1728476018009317</v>
       </c>
       <c r="F15">
-        <v>1.833675843444425</v>
+        <v>2.521518126718462</v>
       </c>
       <c r="G15">
-        <v>0.9755933971145794</v>
+        <v>1.400248795717559</v>
       </c>
       <c r="H15">
-        <v>0.6458989067458418</v>
+        <v>1.290956081116036</v>
       </c>
       <c r="I15">
-        <v>0.7212784511859525</v>
+        <v>1.329601321671952</v>
       </c>
       <c r="J15">
-        <v>0.063946932866493</v>
+        <v>0.08854112053070651</v>
       </c>
       <c r="K15">
-        <v>1.530160207733957</v>
+        <v>0.5798365939340329</v>
       </c>
       <c r="L15">
-        <v>0.5370386596764263</v>
+        <v>0.4607585702496095</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.672641000813684</v>
+        <v>0.8533326514832709</v>
       </c>
       <c r="C16">
-        <v>0.09972444279107862</v>
+        <v>0.08224864227196349</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1135525049585624</v>
+        <v>0.1718366237575495</v>
       </c>
       <c r="F16">
-        <v>1.766636253438577</v>
+        <v>2.513722801470934</v>
       </c>
       <c r="G16">
-        <v>0.951495086043991</v>
+        <v>1.399919466523286</v>
       </c>
       <c r="H16">
-        <v>0.6402322061970267</v>
+        <v>1.29392365489403</v>
       </c>
       <c r="I16">
-        <v>0.7140844013657315</v>
+        <v>1.332621742782955</v>
       </c>
       <c r="J16">
-        <v>0.06414086984925405</v>
+        <v>0.0884690930845089</v>
       </c>
       <c r="K16">
-        <v>1.430260326896359</v>
+        <v>0.5523036339126577</v>
       </c>
       <c r="L16">
-        <v>0.5052361899125799</v>
+        <v>0.4535036836304016</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.602055725350283</v>
+        <v>0.8345794932134254</v>
       </c>
       <c r="C17">
-        <v>0.09684231692518352</v>
+        <v>0.08131621422177915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1101448528143685</v>
+        <v>0.1712312945812826</v>
       </c>
       <c r="F17">
-        <v>1.726439908408324</v>
+        <v>2.509256804978293</v>
       </c>
       <c r="G17">
-        <v>0.9374020501916931</v>
+        <v>1.399921393602469</v>
       </c>
       <c r="H17">
-        <v>0.6371232905141682</v>
+        <v>1.295884223385116</v>
       </c>
       <c r="I17">
-        <v>0.7101242563654466</v>
+        <v>1.334634534312592</v>
       </c>
       <c r="J17">
-        <v>0.06426297133019077</v>
+        <v>0.08842616445905804</v>
       </c>
       <c r="K17">
-        <v>1.369270412393178</v>
+        <v>0.5354467910526068</v>
       </c>
       <c r="L17">
-        <v>0.4858635197792296</v>
+        <v>0.4490995564128468</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.561577427687837</v>
+        <v>0.8238198494631774</v>
       </c>
       <c r="C18">
-        <v>0.09518973218079907</v>
+        <v>0.08077787883096477</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1081954009974666</v>
+        <v>0.1708886077110492</v>
       </c>
       <c r="F18">
-        <v>1.703647686045443</v>
+        <v>2.506804316849696</v>
       </c>
       <c r="G18">
-        <v>0.9295393785850621</v>
+        <v>1.399997395827938</v>
       </c>
       <c r="H18">
-        <v>0.6354654479011543</v>
+        <v>1.297063364945387</v>
       </c>
       <c r="I18">
-        <v>0.7080070603118571</v>
+        <v>1.335850972015862</v>
       </c>
       <c r="J18">
-        <v>0.06433436265635706</v>
+        <v>0.0884019388755668</v>
       </c>
       <c r="K18">
-        <v>1.3342906337285</v>
+        <v>0.52576370262193</v>
       </c>
       <c r="L18">
-        <v>0.4747684557383849</v>
+        <v>0.4465835687891513</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.547892004057871</v>
+        <v>0.8201814186282093</v>
       </c>
       <c r="C19">
-        <v>0.09463101866337809</v>
+        <v>0.0805952589587946</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1075371173499349</v>
+        <v>0.170773523023243</v>
       </c>
       <c r="F19">
-        <v>1.695985595109576</v>
+        <v>2.50599391364392</v>
       </c>
       <c r="G19">
-        <v>0.9269180294777328</v>
+        <v>1.400035986201488</v>
       </c>
       <c r="H19">
-        <v>0.6349260811613391</v>
+        <v>1.297471443147202</v>
       </c>
       <c r="I19">
-        <v>0.7073172435991708</v>
+        <v>1.336272922985657</v>
       </c>
       <c r="J19">
-        <v>0.06435873525702718</v>
+        <v>0.08839381685537262</v>
       </c>
       <c r="K19">
-        <v>1.322463470484621</v>
+        <v>0.5224873376468793</v>
       </c>
       <c r="L19">
-        <v>0.471019771542629</v>
+        <v>0.445734649559526</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.609556972266773</v>
+        <v>0.8365730422169406</v>
       </c>
       <c r="C20">
-        <v>0.09714857821052902</v>
+        <v>0.08141568248228737</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1105065021165679</v>
+        <v>0.1712951658671855</v>
       </c>
       <c r="F20">
-        <v>1.730684653305559</v>
+        <v>2.509720188918195</v>
       </c>
       <c r="G20">
-        <v>0.9388768691241154</v>
+        <v>1.399913435857826</v>
       </c>
       <c r="H20">
-        <v>0.6374406482002541</v>
+        <v>1.295670190190208</v>
       </c>
       <c r="I20">
-        <v>0.7105290701059914</v>
+        <v>1.334414190202615</v>
       </c>
       <c r="J20">
-        <v>0.06424985346067302</v>
+        <v>0.08843068615303906</v>
       </c>
       <c r="K20">
-        <v>1.375752353844433</v>
+        <v>0.5372399375958423</v>
       </c>
       <c r="L20">
-        <v>0.4879207869355611</v>
+        <v>0.4495666096214279</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.81824833422408</v>
+        <v>0.891964063821888</v>
       </c>
       <c r="C21">
-        <v>0.1056731746584987</v>
+        <v>0.08414801015349127</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1206124320017814</v>
+        <v>0.1731132010848633</v>
       </c>
       <c r="F21">
-        <v>1.851283705141924</v>
+        <v>2.523628446122331</v>
       </c>
       <c r="G21">
-        <v>0.9820374069150546</v>
+        <v>1.400396927832546</v>
       </c>
       <c r="H21">
-        <v>0.6474794885397017</v>
+        <v>1.290233209476881</v>
       </c>
       <c r="I21">
-        <v>0.7232809341489528</v>
+        <v>1.328870943347042</v>
       </c>
       <c r="J21">
-        <v>0.0638978188955619</v>
+        <v>0.0885601025980165</v>
       </c>
       <c r="K21">
-        <v>1.556050939170802</v>
+        <v>0.5869553923490116</v>
       </c>
       <c r="L21">
-        <v>0.5452941810595178</v>
+        <v>0.4626459719795548</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.955917843637593</v>
+        <v>0.9283988664636809</v>
       </c>
       <c r="C22">
-        <v>0.1113044353982673</v>
+        <v>0.08591581282468752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1273212468177825</v>
+        <v>0.1743498597456608</v>
       </c>
       <c r="F22">
-        <v>1.933330601566468</v>
+        <v>2.533752531404048</v>
       </c>
       <c r="G22">
-        <v>1.012640993387009</v>
+        <v>1.401381128296123</v>
       </c>
       <c r="H22">
-        <v>0.655303868357862</v>
+        <v>1.287138128270669</v>
       </c>
       <c r="I22">
-        <v>0.7331753488840107</v>
+        <v>1.325771445839955</v>
       </c>
       <c r="J22">
-        <v>0.06367782550304568</v>
+        <v>0.08864875654316862</v>
       </c>
       <c r="K22">
-        <v>1.674964468678411</v>
+        <v>0.6195561984125106</v>
       </c>
       <c r="L22">
-        <v>0.5832760365064615</v>
+        <v>0.4713455927169292</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.882313716515768</v>
+        <v>0.9089317473348615</v>
       </c>
       <c r="C23">
-        <v>0.1082927130453299</v>
+        <v>0.08497393803735065</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.123730595499616</v>
+        <v>0.1736854140165391</v>
       </c>
       <c r="F23">
-        <v>1.889229449961888</v>
+        <v>2.528254523861392</v>
       </c>
       <c r="G23">
-        <v>0.9960764113321829</v>
+        <v>1.400794638292965</v>
       </c>
       <c r="H23">
-        <v>0.6510070112250474</v>
+        <v>1.288748100316994</v>
       </c>
       <c r="I23">
-        <v>0.7277451124127481</v>
+        <v>1.32737780518481</v>
       </c>
       <c r="J23">
-        <v>0.06379433036694948</v>
+        <v>0.08860107122082539</v>
       </c>
       <c r="K23">
-        <v>1.611389901172146</v>
+        <v>0.6021466982909374</v>
       </c>
       <c r="L23">
-        <v>0.5629569148999849</v>
+        <v>0.4666886377585371</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.606165342666628</v>
+        <v>0.8356716907746033</v>
       </c>
       <c r="C24">
-        <v>0.09701010396842946</v>
+        <v>0.0813707199542506</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1103429705103203</v>
+        <v>0.1712662730689303</v>
       </c>
       <c r="F24">
-        <v>1.728764619505966</v>
+        <v>2.509510334581464</v>
       </c>
       <c r="G24">
-        <v>0.9382093596473169</v>
+        <v>1.399916800271924</v>
       </c>
       <c r="H24">
-        <v>0.6372967684899891</v>
+        <v>1.295766792661425</v>
       </c>
       <c r="I24">
-        <v>0.7103455582751437</v>
+        <v>1.334513623190745</v>
       </c>
       <c r="J24">
-        <v>0.06425578032882839</v>
+        <v>0.08842864047733201</v>
       </c>
       <c r="K24">
-        <v>1.372821608067255</v>
+        <v>0.5364292306766458</v>
       </c>
       <c r="L24">
-        <v>0.486990564606046</v>
+        <v>0.4493554050044821</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.312800478300517</v>
+        <v>0.7576708583632126</v>
       </c>
       <c r="C25">
-        <v>0.08502969587175357</v>
+        <v>0.0774064678830868</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09630011234333935</v>
+        <v>0.1688666410278437</v>
       </c>
       <c r="F25">
-        <v>1.568050839394644</v>
+        <v>2.493735911503734</v>
       </c>
       <c r="G25">
-        <v>0.8849789958363772</v>
+        <v>1.401832423859545</v>
       </c>
       <c r="H25">
-        <v>0.6274404148592225</v>
+        <v>1.305305600277279</v>
       </c>
       <c r="I25">
-        <v>0.6976525723740039</v>
+        <v>1.344456045636775</v>
       </c>
       <c r="J25">
-        <v>0.06479810749161174</v>
+        <v>0.08826050058758561</v>
       </c>
       <c r="K25">
-        <v>1.119218888286667</v>
+        <v>0.4660223430799988</v>
       </c>
       <c r="L25">
-        <v>0.4068373418444082</v>
+        <v>0.4313150268037731</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7011252215273771</v>
+        <v>1.099642513612139</v>
       </c>
       <c r="C2">
-        <v>0.07441954820658481</v>
+        <v>0.07630315842757796</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1672815938945575</v>
+        <v>0.08625093612825552</v>
       </c>
       <c r="F2">
-        <v>2.485942218732831</v>
+        <v>1.458834187157422</v>
       </c>
       <c r="G2">
-        <v>1.405696287753514</v>
+        <v>0.8525786024418807</v>
       </c>
       <c r="H2">
-        <v>1.314022443498715</v>
+        <v>0.6239299129983493</v>
       </c>
       <c r="I2">
-        <v>1.353706269373127</v>
+        <v>0.6929024514410003</v>
       </c>
       <c r="J2">
-        <v>0.08815242923239985</v>
+        <v>0.06523727842882465</v>
       </c>
       <c r="K2">
-        <v>0.4145962733496731</v>
+        <v>0.9347637064619789</v>
       </c>
       <c r="L2">
-        <v>0.4185993786323934</v>
+        <v>0.3490500406745412</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6633612166925786</v>
+        <v>0.9564969700601011</v>
       </c>
       <c r="C3">
-        <v>0.07235220454283109</v>
+        <v>0.07041786893909574</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1663215372298623</v>
+        <v>0.07959835323437048</v>
       </c>
       <c r="F3">
-        <v>2.483043847407188</v>
+        <v>1.389814447166543</v>
       </c>
       <c r="G3">
-        <v>1.409841234333612</v>
+        <v>0.8343583241217658</v>
       </c>
       <c r="H3">
-        <v>1.320986855299353</v>
+        <v>0.6236651964700854</v>
       </c>
       <c r="I3">
-        <v>1.36117835806521</v>
+        <v>0.6922662875836707</v>
       </c>
       <c r="J3">
-        <v>0.08808919817806959</v>
+        <v>0.06556055464912092</v>
       </c>
       <c r="K3">
-        <v>0.3800044439820454</v>
+        <v>0.8107540858470372</v>
       </c>
       <c r="L3">
-        <v>0.4103376167998221</v>
+        <v>0.3105143405863799</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.640451261161985</v>
+        <v>0.8691149880520186</v>
       </c>
       <c r="C4">
-        <v>0.07106141399443544</v>
+        <v>0.066809493177864</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.165788643321708</v>
+        <v>0.07558443548415283</v>
       </c>
       <c r="F4">
-        <v>2.482440281539851</v>
+        <v>1.34969184266366</v>
       </c>
       <c r="G4">
-        <v>1.413137928468402</v>
+        <v>0.8248631428692477</v>
       </c>
       <c r="H4">
-        <v>1.32578460037449</v>
+        <v>0.6244780432904378</v>
       </c>
       <c r="I4">
-        <v>1.366359558901493</v>
+        <v>0.6930635661224187</v>
       </c>
       <c r="J4">
-        <v>0.08805538167351123</v>
+        <v>0.06577196405047125</v>
       </c>
       <c r="K4">
-        <v>0.3588943865144074</v>
+        <v>0.7349782209252567</v>
       </c>
       <c r="L4">
-        <v>0.4054411284788131</v>
+        <v>0.2871206782711653</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.63118556011392</v>
+        <v>0.8336157552344332</v>
       </c>
       <c r="C5">
-        <v>0.07052999779362068</v>
+        <v>0.06533914413446951</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.165585765772903</v>
+        <v>0.07396557569581219</v>
       </c>
       <c r="F5">
-        <v>2.482490223302221</v>
+        <v>1.333879811126977</v>
       </c>
       <c r="G5">
-        <v>1.414670236810522</v>
+        <v>0.8213981837419624</v>
       </c>
       <c r="H5">
-        <v>1.327870919343667</v>
+        <v>0.6250451355990378</v>
       </c>
       <c r="I5">
-        <v>1.368620125985458</v>
+        <v>0.6936751262136198</v>
       </c>
       <c r="J5">
-        <v>0.08804287181959758</v>
+        <v>0.06586140323199352</v>
       </c>
       <c r="K5">
-        <v>0.3503247850771771</v>
+        <v>0.7041741799890531</v>
       </c>
       <c r="L5">
-        <v>0.4034902696019458</v>
+        <v>0.2776491104530834</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6296512596435093</v>
+        <v>0.8277272339663</v>
       </c>
       <c r="C6">
-        <v>0.07044142932247865</v>
+        <v>0.06509496536188664</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1655529421931625</v>
+        <v>0.07369775560544767</v>
       </c>
       <c r="F6">
-        <v>2.482516392846264</v>
+        <v>1.331285926436266</v>
       </c>
       <c r="G6">
-        <v>1.41493607924248</v>
+        <v>0.820846659822422</v>
       </c>
       <c r="H6">
-        <v>1.328225276487558</v>
+        <v>0.6251532801076536</v>
       </c>
       <c r="I6">
-        <v>1.369004501698917</v>
+        <v>0.6937936492097236</v>
       </c>
       <c r="J6">
-        <v>0.08804087164989127</v>
+        <v>0.06587645432539802</v>
       </c>
       <c r="K6">
-        <v>0.3489038082497586</v>
+        <v>0.6990632613712506</v>
       </c>
       <c r="L6">
-        <v>0.4031690238547014</v>
+        <v>0.2760799199904227</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6403260153180099</v>
+        <v>0.8686358128480265</v>
       </c>
       <c r="C7">
-        <v>0.07105426905290813</v>
+        <v>0.06678966470981607</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1657858493507582</v>
+        <v>0.07556253600089846</v>
       </c>
       <c r="F7">
-        <v>2.482439756758552</v>
+        <v>1.349476453879859</v>
       </c>
       <c r="G7">
-        <v>1.413157829137873</v>
+        <v>0.8248148028443296</v>
       </c>
       <c r="H7">
-        <v>1.325812205924791</v>
+        <v>0.6244847484103673</v>
       </c>
       <c r="I7">
-        <v>1.36638944166458</v>
+        <v>0.693070668587481</v>
       </c>
       <c r="J7">
-        <v>0.08805520780139631</v>
+        <v>0.06577315689118812</v>
       </c>
       <c r="K7">
-        <v>0.3587786801028869</v>
+        <v>0.7345625038481387</v>
       </c>
       <c r="L7">
-        <v>0.405414638100055</v>
+        <v>0.2869926995309555</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6880469636912778</v>
+        <v>1.050168500100938</v>
       </c>
       <c r="C8">
-        <v>0.07371116461191463</v>
+        <v>0.07427206767019356</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1669388529417262</v>
+        <v>0.08394183730828075</v>
       </c>
       <c r="F8">
-        <v>2.484698869016142</v>
+        <v>1.434550039699033</v>
       </c>
       <c r="G8">
-        <v>1.406969369081651</v>
+        <v>0.8459319769742564</v>
       </c>
       <c r="H8">
-        <v>1.316315548230349</v>
+        <v>0.6236303637739979</v>
       </c>
       <c r="I8">
-        <v>1.356159499624681</v>
+        <v>0.692429102750296</v>
       </c>
       <c r="J8">
-        <v>0.08812959460892245</v>
+        <v>0.06534608719157475</v>
       </c>
       <c r="K8">
-        <v>0.4026423457349608</v>
+        <v>0.8919185641652518</v>
       </c>
       <c r="L8">
-        <v>0.4157142409710843</v>
+        <v>0.3357038854134657</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7838085046182357</v>
+        <v>1.411113816618666</v>
       </c>
       <c r="C9">
-        <v>0.0787523199024065</v>
+        <v>0.08904632095812559</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1696468170010874</v>
+        <v>0.1009820602747666</v>
       </c>
       <c r="F9">
-        <v>2.498455972348324</v>
+        <v>1.62067456603927</v>
       </c>
       <c r="G9">
-        <v>1.400805481798741</v>
+        <v>0.9017841760556848</v>
       </c>
       <c r="H9">
-        <v>1.301829441374082</v>
+        <v>0.6301471446587641</v>
       </c>
       <c r="I9">
-        <v>1.340807085547063</v>
+        <v>0.7011744105984405</v>
       </c>
       <c r="J9">
-        <v>0.08831472109466532</v>
+        <v>0.06460933479035802</v>
       </c>
       <c r="K9">
-        <v>0.4896748508873259</v>
+        <v>1.204233283866557</v>
       </c>
       <c r="L9">
-        <v>0.4373040408796811</v>
+        <v>0.4336265335081748</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8554761184971653</v>
+        <v>1.680712266968499</v>
       </c>
       <c r="C10">
-        <v>0.08235476449375767</v>
+        <v>0.100054055654013</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1719064377132575</v>
+        <v>0.1139428032242478</v>
       </c>
       <c r="F10">
-        <v>2.514248150151445</v>
+        <v>1.77126835115088</v>
       </c>
       <c r="G10">
-        <v>1.399929399386863</v>
+        <v>0.9531369130172038</v>
       </c>
       <c r="H10">
-        <v>1.293706915078317</v>
+        <v>0.6406049505449403</v>
       </c>
       <c r="I10">
-        <v>1.332400028904807</v>
+        <v>0.7145584663326972</v>
       </c>
       <c r="J10">
-        <v>0.08847405440200262</v>
+        <v>0.06412709374155412</v>
       </c>
       <c r="K10">
-        <v>0.5542288047392674</v>
+        <v>1.437233863665398</v>
       </c>
       <c r="L10">
-        <v>0.4540085448982012</v>
+        <v>0.5074533948027664</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8883611272579515</v>
+        <v>1.804654293073781</v>
       </c>
       <c r="C11">
-        <v>0.08397200617872613</v>
+        <v>0.1051175315062594</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1729925645116879</v>
+        <v>0.1199516846799327</v>
       </c>
       <c r="F11">
-        <v>2.522666917606116</v>
+        <v>1.84328593955226</v>
       </c>
       <c r="G11">
-        <v>1.400326672038815</v>
+        <v>0.9791047689156898</v>
       </c>
       <c r="H11">
-        <v>1.290558805313566</v>
+        <v>0.6467570242918725</v>
       </c>
       <c r="I11">
-        <v>1.329199640730735</v>
+        <v>0.722365811030194</v>
       </c>
       <c r="J11">
-        <v>0.08855147803896557</v>
+        <v>0.0639200385327392</v>
       </c>
       <c r="K11">
-        <v>0.5837275131464423</v>
+        <v>1.54430806785291</v>
       </c>
       <c r="L11">
-        <v>0.4617895983486449</v>
+        <v>0.5415491921080786</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9008540840765136</v>
+        <v>1.851804981442172</v>
       </c>
       <c r="C12">
-        <v>0.08458134269911</v>
+        <v>0.1070450564322627</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1734121764914889</v>
+        <v>0.122244830405041</v>
       </c>
       <c r="F12">
-        <v>2.526032368167492</v>
+        <v>1.871107294332475</v>
       </c>
       <c r="G12">
-        <v>1.400591735698498</v>
+        <v>0.9893462597995608</v>
       </c>
       <c r="H12">
-        <v>1.289445312540352</v>
+        <v>0.6493020977763848</v>
       </c>
       <c r="I12">
-        <v>1.328077504239801</v>
+        <v>0.7255882847493709</v>
       </c>
       <c r="J12">
-        <v>0.08858149629843126</v>
+        <v>0.06384336388165934</v>
       </c>
       <c r="K12">
-        <v>0.594916744284717</v>
+        <v>1.585037244283399</v>
       </c>
       <c r="L12">
-        <v>0.46476212054732</v>
+        <v>0.5545429499896528</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8981617273237248</v>
+        <v>1.84164010985242</v>
       </c>
       <c r="C13">
-        <v>0.08445024777754639</v>
+        <v>0.1066294457534127</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1733214363617428</v>
+        <v>0.1217501481164049</v>
       </c>
       <c r="F13">
-        <v>2.52529966813475</v>
+        <v>1.865090259873725</v>
       </c>
       <c r="G13">
-        <v>1.400529548505304</v>
+        <v>0.9871218677957501</v>
       </c>
       <c r="H13">
-        <v>1.289681626293159</v>
+        <v>0.6487441402102263</v>
       </c>
       <c r="I13">
-        <v>1.328315182620045</v>
+        <v>0.7248821205442866</v>
       </c>
       <c r="J13">
-        <v>0.08857500038886101</v>
+        <v>0.06385980069239849</v>
       </c>
       <c r="K13">
-        <v>0.5925061171001289</v>
+        <v>1.576256915509418</v>
       </c>
       <c r="L13">
-        <v>0.4641207809096386</v>
+        <v>0.5517406976416765</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8893881296521329</v>
+        <v>1.808528890936856</v>
       </c>
       <c r="C14">
-        <v>0.08402219824155566</v>
+        <v>0.1052758953859296</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1730269198058174</v>
+        <v>0.120139979371185</v>
       </c>
       <c r="F14">
-        <v>2.522940239657984</v>
+        <v>1.8455635294263</v>
       </c>
       <c r="G14">
-        <v>1.400346180645627</v>
+        <v>0.9799389656554922</v>
       </c>
       <c r="H14">
-        <v>1.290465621829696</v>
+        <v>0.6469620022761973</v>
       </c>
       <c r="I14">
-        <v>1.329105522269451</v>
+        <v>0.7226254814730524</v>
       </c>
       <c r="J14">
-        <v>0.08855393370084741</v>
+        <v>0.06391369595861107</v>
       </c>
       <c r="K14">
-        <v>0.5846476851341436</v>
+        <v>1.54765506109058</v>
       </c>
       <c r="L14">
-        <v>0.4620336293564975</v>
+        <v>0.542616491377828</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8840192549633628</v>
+        <v>1.788276430991687</v>
       </c>
       <c r="C15">
-        <v>0.08375960525510351</v>
+        <v>0.1044481855610115</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1728476018009317</v>
+        <v>0.1191560566678618</v>
       </c>
       <c r="F15">
-        <v>2.521518126718462</v>
+        <v>1.833675843444453</v>
       </c>
       <c r="G15">
-        <v>1.400248795717559</v>
+        <v>0.9755933971145652</v>
       </c>
       <c r="H15">
-        <v>1.290956081116036</v>
+        <v>0.6458989067458418</v>
       </c>
       <c r="I15">
-        <v>1.329601321671952</v>
+        <v>0.7212784511859525</v>
       </c>
       <c r="J15">
-        <v>0.08854112053070651</v>
+        <v>0.06394693286653563</v>
       </c>
       <c r="K15">
-        <v>0.5798365939340329</v>
+        <v>1.5301602077339</v>
       </c>
       <c r="L15">
-        <v>0.4607585702496095</v>
+        <v>0.5370386596763836</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8533326514832709</v>
+        <v>1.672641000813741</v>
       </c>
       <c r="C16">
-        <v>0.08224864227196349</v>
+        <v>0.09972444279096493</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1718366237575495</v>
+        <v>0.1135525049585553</v>
       </c>
       <c r="F16">
-        <v>2.513722801470934</v>
+        <v>1.766636253438605</v>
       </c>
       <c r="G16">
-        <v>1.399919466523286</v>
+        <v>0.951495086043991</v>
       </c>
       <c r="H16">
-        <v>1.29392365489403</v>
+        <v>0.6402322061970409</v>
       </c>
       <c r="I16">
-        <v>1.332621742782955</v>
+        <v>0.7140844013657386</v>
       </c>
       <c r="J16">
-        <v>0.0884690930845089</v>
+        <v>0.06414086984918654</v>
       </c>
       <c r="K16">
-        <v>0.5523036339126577</v>
+        <v>1.430260326896359</v>
       </c>
       <c r="L16">
-        <v>0.4535036836304016</v>
+        <v>0.5052361899127646</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8345794932134254</v>
+        <v>1.602055725350141</v>
       </c>
       <c r="C17">
-        <v>0.08131621422177915</v>
+        <v>0.09684231692493483</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1712312945812826</v>
+        <v>0.1101448528143685</v>
       </c>
       <c r="F17">
-        <v>2.509256804978293</v>
+        <v>1.72643990840831</v>
       </c>
       <c r="G17">
-        <v>1.399921393602469</v>
+        <v>0.9374020501916647</v>
       </c>
       <c r="H17">
-        <v>1.295884223385116</v>
+        <v>0.6371232905141682</v>
       </c>
       <c r="I17">
-        <v>1.334634534312592</v>
+        <v>0.7101242563654395</v>
       </c>
       <c r="J17">
-        <v>0.08842616445905804</v>
+        <v>0.06426297133012682</v>
       </c>
       <c r="K17">
-        <v>0.5354467910526068</v>
+        <v>1.369270412393291</v>
       </c>
       <c r="L17">
-        <v>0.4490995564128468</v>
+        <v>0.4858635197791727</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8238198494631774</v>
+        <v>1.561577427687695</v>
       </c>
       <c r="C18">
-        <v>0.08077787883096477</v>
+        <v>0.09518973218043669</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1708886077110492</v>
+        <v>0.1081954009974595</v>
       </c>
       <c r="F18">
-        <v>2.506804316849696</v>
+        <v>1.703647686045443</v>
       </c>
       <c r="G18">
-        <v>1.399997395827938</v>
+        <v>0.9295393785850905</v>
       </c>
       <c r="H18">
-        <v>1.297063364945387</v>
+        <v>0.6354654479010406</v>
       </c>
       <c r="I18">
-        <v>1.335850972015862</v>
+        <v>0.7080070603118571</v>
       </c>
       <c r="J18">
-        <v>0.0884019388755668</v>
+        <v>0.06433436265645298</v>
       </c>
       <c r="K18">
-        <v>0.52576370262193</v>
+        <v>1.3342906337285</v>
       </c>
       <c r="L18">
-        <v>0.4465835687891513</v>
+        <v>0.4747684557384559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8201814186282093</v>
+        <v>1.547892004057957</v>
       </c>
       <c r="C19">
-        <v>0.0805952589587946</v>
+        <v>0.09463101866312229</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.170773523023243</v>
+        <v>0.1075371173499136</v>
       </c>
       <c r="F19">
-        <v>2.50599391364392</v>
+        <v>1.695985595109576</v>
       </c>
       <c r="G19">
-        <v>1.400035986201488</v>
+        <v>0.9269180294777897</v>
       </c>
       <c r="H19">
-        <v>1.297471443147202</v>
+        <v>0.6349260811614528</v>
       </c>
       <c r="I19">
-        <v>1.336272922985657</v>
+        <v>0.7073172435991779</v>
       </c>
       <c r="J19">
-        <v>0.08839381685537262</v>
+        <v>0.06435873525685309</v>
       </c>
       <c r="K19">
-        <v>0.5224873376468793</v>
+        <v>1.322463470484621</v>
       </c>
       <c r="L19">
-        <v>0.445734649559526</v>
+        <v>0.4710197715425863</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8365730422169406</v>
+        <v>1.609556972266773</v>
       </c>
       <c r="C20">
-        <v>0.08141568248228737</v>
+        <v>0.09714857821077061</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1712951658671855</v>
+        <v>0.1105065021165963</v>
       </c>
       <c r="F20">
-        <v>2.509720188918195</v>
+        <v>1.730684653305559</v>
       </c>
       <c r="G20">
-        <v>1.399913435857826</v>
+        <v>0.9388768691241864</v>
       </c>
       <c r="H20">
-        <v>1.295670190190208</v>
+        <v>0.6374406482001262</v>
       </c>
       <c r="I20">
-        <v>1.334414190202615</v>
+        <v>0.7105290701060198</v>
       </c>
       <c r="J20">
-        <v>0.08843068615303906</v>
+        <v>0.064249853460705</v>
       </c>
       <c r="K20">
-        <v>0.5372399375958423</v>
+        <v>1.37575235384449</v>
       </c>
       <c r="L20">
-        <v>0.4495666096214279</v>
+        <v>0.4879207869355042</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.891964063821888</v>
+        <v>1.818248334224194</v>
       </c>
       <c r="C21">
-        <v>0.08414801015349127</v>
+        <v>0.1056731746582358</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1731132010848633</v>
+        <v>0.1206124320017707</v>
       </c>
       <c r="F21">
-        <v>2.523628446122331</v>
+        <v>1.851283705141924</v>
       </c>
       <c r="G21">
-        <v>1.400396927832546</v>
+        <v>0.982037406915083</v>
       </c>
       <c r="H21">
-        <v>1.290233209476881</v>
+        <v>0.6474794885398154</v>
       </c>
       <c r="I21">
-        <v>1.328870943347042</v>
+        <v>0.7232809341489599</v>
       </c>
       <c r="J21">
-        <v>0.0885601025980165</v>
+        <v>0.06389781889548019</v>
       </c>
       <c r="K21">
-        <v>0.5869553923490116</v>
+        <v>1.556050939170689</v>
       </c>
       <c r="L21">
-        <v>0.4626459719795548</v>
+        <v>0.5452941810595746</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9283988664636809</v>
+        <v>1.955917843637479</v>
       </c>
       <c r="C22">
-        <v>0.08591581282468752</v>
+        <v>0.1113044353981394</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1743498597456608</v>
+        <v>0.1273212468178002</v>
       </c>
       <c r="F22">
-        <v>2.533752531404048</v>
+        <v>1.933330601566453</v>
       </c>
       <c r="G22">
-        <v>1.401381128296123</v>
+        <v>1.012640993387024</v>
       </c>
       <c r="H22">
-        <v>1.287138128270669</v>
+        <v>0.655303868357862</v>
       </c>
       <c r="I22">
-        <v>1.325771445839955</v>
+        <v>0.7331753488840036</v>
       </c>
       <c r="J22">
-        <v>0.08864875654316862</v>
+        <v>0.06367782550303858</v>
       </c>
       <c r="K22">
-        <v>0.6195561984125106</v>
+        <v>1.674964468678269</v>
       </c>
       <c r="L22">
-        <v>0.4713455927169292</v>
+        <v>0.5832760365064473</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9089317473348615</v>
+        <v>1.88231371651591</v>
       </c>
       <c r="C23">
-        <v>0.08497393803735065</v>
+        <v>0.1082927130455857</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1736854140165391</v>
+        <v>0.1237305954996089</v>
       </c>
       <c r="F23">
-        <v>2.528254523861392</v>
+        <v>1.889229449961888</v>
       </c>
       <c r="G23">
-        <v>1.400794638292965</v>
+        <v>0.9960764113321687</v>
       </c>
       <c r="H23">
-        <v>1.288748100316994</v>
+        <v>0.6510070112249338</v>
       </c>
       <c r="I23">
-        <v>1.32737780518481</v>
+        <v>0.7277451124127552</v>
       </c>
       <c r="J23">
-        <v>0.08860107122082539</v>
+        <v>0.06379433036705962</v>
       </c>
       <c r="K23">
-        <v>0.6021466982909374</v>
+        <v>1.611389901172174</v>
       </c>
       <c r="L23">
-        <v>0.4666886377585371</v>
+        <v>0.5629569149000133</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8356716907746033</v>
+        <v>1.606165342666628</v>
       </c>
       <c r="C24">
-        <v>0.0813707199542506</v>
+        <v>0.09701010396854315</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1712662730689303</v>
+        <v>0.1103429705103451</v>
       </c>
       <c r="F24">
-        <v>2.509510334581464</v>
+        <v>1.728764619505981</v>
       </c>
       <c r="G24">
-        <v>1.399916800271924</v>
+        <v>0.9382093596472885</v>
       </c>
       <c r="H24">
-        <v>1.295766792661425</v>
+        <v>0.6372967684899606</v>
       </c>
       <c r="I24">
-        <v>1.334513623190745</v>
+        <v>0.7103455582751508</v>
       </c>
       <c r="J24">
-        <v>0.08842864047733201</v>
+        <v>0.06425578032886392</v>
       </c>
       <c r="K24">
-        <v>0.5364292306766458</v>
+        <v>1.372821608067284</v>
       </c>
       <c r="L24">
-        <v>0.4493554050044821</v>
+        <v>0.4869905646060175</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7576708583632126</v>
+        <v>1.31280047830046</v>
       </c>
       <c r="C25">
-        <v>0.0774064678830868</v>
+        <v>0.08502969587209463</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1688666410278437</v>
+        <v>0.0963001123433429</v>
       </c>
       <c r="F25">
-        <v>2.493735911503734</v>
+        <v>1.56805083939463</v>
       </c>
       <c r="G25">
-        <v>1.401832423859545</v>
+        <v>0.8849789958363772</v>
       </c>
       <c r="H25">
-        <v>1.305305600277279</v>
+        <v>0.6274404148592083</v>
       </c>
       <c r="I25">
-        <v>1.344456045636775</v>
+        <v>0.6976525723739755</v>
       </c>
       <c r="J25">
-        <v>0.08826050058758561</v>
+        <v>0.06479810749163484</v>
       </c>
       <c r="K25">
-        <v>0.4660223430799988</v>
+        <v>1.119218888286667</v>
       </c>
       <c r="L25">
-        <v>0.4313150268037731</v>
+        <v>0.4068373418442519</v>
       </c>
       <c r="M25">
         <v>0</v>
